--- a/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BFC91F-2C35-4AD9-8F28-337563A4D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D14AACE-5042-4F42-B754-4804D3789738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E8F68DA-8805-4E21-A85C-ED366D1DCA1E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C82697F-4A80-4546-9911-0C173C913A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -133,6 +133,51 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -178,51 +223,6 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -316,6 +316,33 @@
     <t>1,14%</t>
   </si>
   <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>94,43%</t>
   </si>
   <si>
@@ -346,9 +373,6 @@
     <t>12,98%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>2,31%</t>
   </si>
   <si>
@@ -361,30 +385,6 @@
     <t>6,21%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
     <t>97,85%</t>
   </si>
   <si>
@@ -466,6 +466,42 @@
     <t>3,88%</t>
   </si>
   <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
     <t>97,24%</t>
   </si>
   <si>
@@ -494,42 +530,6 @@
   </si>
   <si>
     <t>4,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
   </si>
   <si>
     <t>98,61%</t>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2423EE60-4046-4D83-8272-649A7D50BC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ED66AF-6052-4B71-8235-B42FBEACE1E7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1242,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>53746</v>
+        <v>41665</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1257,10 +1257,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>44027</v>
+        <v>31653</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1272,10 +1272,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>97773</v>
+        <v>73317</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1293,10 +1293,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1309</v>
+        <v>725</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1308,10 +1308,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>654</v>
+        <v>1050</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1963</v>
+        <v>1776</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1344,10 +1344,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1359,10 +1359,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1374,10 +1374,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1397,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>41665</v>
+        <v>53746</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1412,10 +1412,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>31653</v>
+        <v>44027</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1427,10 +1427,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>73317</v>
+        <v>97773</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -1448,10 +1448,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>725</v>
+        <v>1309</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>54</v>
@@ -1463,10 +1463,10 @@
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1050</v>
+        <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1481,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1776</v>
+        <v>1963</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>58</v>
@@ -1499,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1514,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1529,10 +1529,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069C4DAB-E74A-4D29-A93E-0AF08C6E8364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE4EB4A-A864-45AB-AB4A-BAD01B7D34F2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1839,7 +1839,7 @@
         <v>76747</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>80</v>
@@ -1890,7 +1890,7 @@
         <v>1540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
@@ -1988,49 +1988,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>43329</v>
+        <v>66677</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>54210</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>167</v>
+      </c>
+      <c r="N7" s="7">
+        <v>120887</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="7">
-        <v>82</v>
-      </c>
-      <c r="I7" s="7">
-        <v>56891</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="7">
-        <v>145</v>
-      </c>
-      <c r="N7" s="7">
-        <v>100220</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,49 +2039,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2557</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>944</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>944</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2557</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7">
-        <v>45886</v>
+        <v>66677</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2105,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2120,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="N9" s="7">
-        <v>102777</v>
+        <v>121831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2143,49 +2143,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>66677</v>
+        <v>43329</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="7">
+        <v>82</v>
+      </c>
+      <c r="I10" s="7">
+        <v>56891</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="7">
+        <v>145</v>
+      </c>
+      <c r="N10" s="7">
+        <v>100220</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>75</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54210</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>167</v>
-      </c>
-      <c r="N10" s="7">
-        <v>120887</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,46 +2194,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2557</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>944</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2557</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>944</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>114</v>
@@ -2245,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>66677</v>
+        <v>45886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2260,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2275,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>121831</v>
+        <v>102777</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2461,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEC9F59-F397-4CFF-A4FD-DE131A104220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02C7EEA-C09D-49EF-9CB7-2F667EDCC13B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2639,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>138</v>
@@ -2734,10 +2734,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>49306</v>
+        <v>46033</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>142</v>
@@ -2749,31 +2749,31 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7">
-        <v>57015</v>
+        <v>52440</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" s="7">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>106321</v>
+        <v>98473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2785,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1399</v>
+        <v>663</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1399</v>
+        <v>1252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>50705</v>
+        <v>46696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2851,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>57015</v>
+        <v>53029</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2866,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>107720</v>
+        <v>99725</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2889,46 +2889,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>46033</v>
+        <v>49306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7">
-        <v>52440</v>
+        <v>57015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>98473</v>
+        <v>106321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2940,31 +2940,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>663</v>
+        <v>1399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>161</v>
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1252</v>
+        <v>1399</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>162</v>
@@ -2991,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>46696</v>
+        <v>50705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3006,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>53029</v>
+        <v>57015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3021,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>99725</v>
+        <v>107720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D14AACE-5042-4F42-B754-4804D3789738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78091807-443B-4700-9899-1DCCCB922937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9C82697F-4A80-4546-9911-0C173C913A1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC8D7975-B5AB-41AD-975A-36F80323E479}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,484 +67,613 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -553,31 +682,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
 </sst>
 </file>
@@ -588,7 +696,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -684,39 +792,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -768,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -879,13 +987,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -894,6 +995,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -958,19 +1066,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ED66AF-6052-4B71-8235-B42FBEACE1E7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E84DD1-1523-4DBA-8B44-6A017BA3F383}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1087,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>45789</v>
+        <v>685</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1102,10 +1230,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>42829</v>
+        <v>2770</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1117,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>88617</v>
+        <v>3455</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1138,10 +1266,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>685</v>
+        <v>28970</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1153,10 +1281,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>5092</v>
+        <v>26265</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1168,10 +1296,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>5778</v>
+        <v>55235</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1189,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1204,10 +1332,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1219,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1242,25 +1370,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>41665</v>
+        <v>725</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>31653</v>
+        <v>2846</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1269,22 +1397,22 @@
         <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>73317</v>
+        <v>3572</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,49 +1421,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>725</v>
+        <v>50235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>1050</v>
+        <v>40375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="N8" s="7">
-        <v>1776</v>
+        <v>90609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1359,10 +1487,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1374,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1391,55 +1519,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>53746</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>44027</v>
+        <v>1181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>97773</v>
+        <v>1180</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,40 +1576,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>1309</v>
+        <v>23866</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>654</v>
+        <v>21326</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="N11" s="7">
-        <v>1963</v>
+        <v>45193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>58</v>
@@ -1490,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1514,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1529,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1546,55 +1674,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>141200</v>
+        <v>1309</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7">
-        <v>178</v>
-      </c>
-      <c r="I13" s="7">
-        <v>118508</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1309</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="7">
-        <v>389</v>
-      </c>
-      <c r="N13" s="7">
-        <v>259708</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,49 +1731,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>2719</v>
+        <v>38129</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="7">
+        <v>102</v>
+      </c>
+      <c r="N14" s="7">
+        <v>68672</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="7">
-        <v>16</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9516</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,55 +1782,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2719</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6797</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="7">
+        <v>16</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9516</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>211</v>
+      </c>
+      <c r="D17" s="7">
+        <v>141200</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
+        <v>178</v>
+      </c>
+      <c r="I17" s="7">
+        <v>118508</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="7">
+        <v>389</v>
+      </c>
+      <c r="N17" s="7">
+        <v>259708</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1715,8 +2004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE4EB4A-A864-45AB-AB4A-BAD01B7D34F2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C500034A-995D-44F9-A18D-0AC02272B25D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1732,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1833,49 +2122,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>76747</v>
+        <v>887</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>72594</v>
+        <v>1708</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>149341</v>
+        <v>2595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,49 +2173,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7">
-        <v>1540</v>
+        <v>50234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>2353</v>
+        <v>47148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="N5" s="7">
-        <v>3893</v>
+        <v>97382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7">
-        <v>78287</v>
+        <v>51121</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1950,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>74947</v>
+        <v>48856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1965,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>153234</v>
+        <v>99977</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1988,49 +2277,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>66677</v>
+        <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>54210</v>
+        <v>1589</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>120887</v>
+        <v>2241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,49 +2328,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>74019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="I8" s="7">
-        <v>944</v>
+        <v>63658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="N8" s="7">
-        <v>944</v>
+        <v>137677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>66677</v>
+        <v>74671</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2105,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>55154</v>
+        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2120,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="N9" s="7">
-        <v>121831</v>
+        <v>139918</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2137,55 +2426,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>43329</v>
+        <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>56891</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>100220</v>
+        <v>652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,49 +2483,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>2557</v>
+        <v>31842</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>37728</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>2557</v>
+        <v>69571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45886</v>
+        <v>32494</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2260,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56891</v>
+        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2275,10 +2564,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>102777</v>
+        <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2292,55 +2581,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>186753</v>
+        <v>1905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>183696</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>528</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>370448</v>
+        <v>1905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2638,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>4097</v>
+        <v>30658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>3296</v>
+        <v>35161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>7394</v>
+        <v>65819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,55 +2689,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>32563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7">
+        <v>67724</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4097</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3296</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>7394</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>264</v>
+      </c>
+      <c r="D17" s="7">
+        <v>186753</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="7">
+        <v>264</v>
+      </c>
+      <c r="I17" s="7">
+        <v>183696</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="7">
+        <v>528</v>
+      </c>
+      <c r="N17" s="7">
+        <v>370448</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>270</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>190850</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>269</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>186992</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>539</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>377842</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2461,8 +2911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02C7EEA-C09D-49EF-9CB7-2F667EDCC13B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566E57B-0FB7-44AA-8180-5070C0BCC2A9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2478,7 +2928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2579,49 +3029,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>50724</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>51319</v>
+        <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>102043</v>
+        <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,49 +3080,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>30918</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>1173</v>
+        <v>30680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N5" s="7">
-        <v>1173</v>
+        <v>61598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
-        <v>50724</v>
+        <v>30918</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2696,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>52492</v>
+        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2711,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>103216</v>
+        <v>62211</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2734,49 +3184,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>46033</v>
+        <v>663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>52440</v>
+        <v>1149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>98473</v>
+        <v>1811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,49 +3235,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>663</v>
+        <v>46703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I8" s="7">
-        <v>589</v>
+        <v>49951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="N8" s="7">
-        <v>1252</v>
+        <v>96655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>46696</v>
+        <v>47366</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2851,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>53029</v>
+        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2866,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>99725</v>
+        <v>98466</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2883,55 +3333,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>49306</v>
+        <v>1399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>57015</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>106321</v>
+        <v>1399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,49 +3390,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>1399</v>
+        <v>41401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>43903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>1399</v>
+        <v>85304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,10 +3441,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>50705</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3006,10 +3456,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>57015</v>
+        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3021,10 +3471,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>107720</v>
+        <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3038,55 +3488,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>146063</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>160774</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>306837</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,49 +3545,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>2062</v>
+        <v>27041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>1762</v>
+        <v>36239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>3824</v>
+        <v>63281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,55 +3596,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63281</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2062</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1762</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3824</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>212</v>
+      </c>
+      <c r="D17" s="7">
+        <v>146063</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="7">
+        <v>242</v>
+      </c>
+      <c r="I17" s="7">
+        <v>160774</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="7">
+        <v>454</v>
+      </c>
+      <c r="N17" s="7">
+        <v>306837</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>215</v>
+      </c>
+      <c r="D18" s="7">
         <v>148125</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>245</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>162536</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>460</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>310661</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78091807-443B-4700-9899-1DCCCB922937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD4E3A8-F1EB-45B9-BBE3-07F1CAE25DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC8D7975-B5AB-41AD-975A-36F80323E479}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8E8443B-2890-4FC2-AA8C-737B3D96F28F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="214">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -79,226 +79,226 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,01%</t>
+    <t>11,72%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -310,16 +310,16 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,6%</t>
+    <t>8,58%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>2,6%</t>
@@ -328,28 +328,28 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>91,4%</t>
+    <t>91,42%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,68%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -358,13 +358,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>4,71%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>8,67%</t>
+    <t>9,04%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -373,25 +373,25 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,49%</t>
+    <t>95,29%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>91,33%</t>
+    <t>90,96%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>95,02%</t>
+    <t>95,17%</t>
   </si>
   <si>
     <t>99,54%</t>
@@ -400,7 +400,7 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>10,53%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -409,13 +409,13 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,63%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>89,42%</t>
+    <t>89,47%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -424,13 +424,16 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,37%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -439,16 +442,19 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>83,86%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -457,103 +463,97 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>3,35%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>12,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>87,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,46%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>7,89%</t>
+    <t>7,85%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -562,34 +562,28 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>91,9%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>92,11%</t>
+    <t>92,15%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
     <t>99,43%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>10,41%</t>
+    <t>11,94%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -598,13 +592,13 @@
     <t>1,61%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>89,59%</t>
+    <t>88,06%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -613,7 +607,7 @@
     <t>98,39%</t>
   </si>
   <si>
-    <t>94,36%</t>
+    <t>95,03%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -640,7 +634,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -649,22 +643,22 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -673,7 +667,7 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -682,10 +676,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E84DD1-1523-4DBA-8B44-6A017BA3F383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F8F595-48AE-447C-AEBF-65AF793F8F05}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1722,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,10 +1731,10 @@
         <v>38129</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -1755,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -1767,10 +1761,10 @@
         <v>68672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -1841,13 +1835,13 @@
         <v>2719</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1856,13 +1850,13 @@
         <v>6797</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1871,13 +1865,13 @@
         <v>9516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1886,13 @@
         <v>141200</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -1907,13 +1901,13 @@
         <v>118508</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -1922,7 +1916,7 @@
         <v>259708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>85</v>
@@ -2004,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C500034A-995D-44F9-A18D-0AC02272B25D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E9176-7DC1-4843-A1DB-0166EC73A6D8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2596,10 +2590,10 @@
         <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2614,7 +2608,7 @@
         <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2623,13 +2617,13 @@
         <v>1905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2638,13 @@
         <v>30658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -2662,7 +2656,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -2674,13 +2668,13 @@
         <v>65819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2742,13 @@
         <v>4097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2763,13 +2757,13 @@
         <v>3296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2778,13 +2772,13 @@
         <v>7394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2793,13 @@
         <v>186753</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -2814,13 +2808,13 @@
         <v>183696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -2829,13 +2823,13 @@
         <v>370448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566E57B-0FB7-44AA-8180-5070C0BCC2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C167DFCE-AA0E-4380-B0F9-98751D62E385}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3050,7 +3044,7 @@
         <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -3101,7 +3095,7 @@
         <v>30680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>165</v>
@@ -3226,7 +3220,7 @@
         <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,10 +3235,10 @@
         <v>46703</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3256,10 +3250,10 @@
         <v>49951</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3271,13 +3265,13 @@
         <v>96655</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3339,13 @@
         <v>1399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3366,7 +3360,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3375,13 +3369,13 @@
         <v>1399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,10 +3390,10 @@
         <v>41401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3414,7 +3408,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3426,10 +3420,10 @@
         <v>85304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -3506,7 +3500,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3521,7 +3515,7 @@
         <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3536,7 +3530,7 @@
         <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,7 +3548,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -3569,7 +3563,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3584,7 +3578,7 @@
         <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -3655,13 +3649,13 @@
         <v>2062</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3670,13 +3664,13 @@
         <v>1762</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3685,13 +3679,13 @@
         <v>3824</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3700,13 @@
         <v>146063</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>242</v>
@@ -3721,13 +3715,13 @@
         <v>160774</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -3736,13 +3730,13 @@
         <v>306837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD4E3A8-F1EB-45B9-BBE3-07F1CAE25DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE8DC13-D7BD-4C74-8DB4-6450CB2D8AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8E8443B-2890-4FC2-AA8C-737B3D96F28F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F3988132-DEC2-4361-A4EB-4731743BA68B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>11,54%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>88,28%</t>
+    <t>88,46%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,28 +136,37 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -166,139 +175,136 @@
     <t>92,95%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>91,93%</t>
+    <t>91,53%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>89,79%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -307,166 +313,169 @@
     <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>8,55%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>10,17%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>89,83%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,37%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -475,85 +484,82 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,35%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,65%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>10,99%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,0%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,0%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -562,124 +568,118 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>92,03%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
+    <t>95,04%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>11,26%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>88,74%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>95,03%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>97,44%</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F8F595-48AE-447C-AEBF-65AF793F8F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D8B06-B553-44CD-A3DE-92175101CC86}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1209,10 +1209,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>685</v>
+        <v>2770</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1224,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2770</v>
+        <v>685</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1260,10 +1260,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>28970</v>
+        <v>26265</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1275,10 +1275,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>26265</v>
+        <v>28970</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1311,25 +1311,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1364,31 +1364,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>725</v>
+        <v>2846</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>2846</v>
+        <v>725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>36</v>
@@ -1415,10 +1415,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>50235</v>
+        <v>40375</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1427,22 +1427,22 @@
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7">
-        <v>40375</v>
+        <v>50235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>136</v>
@@ -1466,25 +1466,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1519,31 +1519,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>52</v>
@@ -1558,7 +1558,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -1570,34 +1570,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>21326</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>23866</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7">
-        <v>21326</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -1612,7 +1612,7 @@
         <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,25 +1621,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1674,31 +1674,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1309</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>63</v>
@@ -1713,10 +1713,10 @@
         <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,34 +1725,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>38129</v>
+        <v>30543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>30543</v>
+        <v>38129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -1761,13 +1761,13 @@
         <v>68672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,25 +1776,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1829,34 +1829,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6797</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2719</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6797</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1865,13 +1865,13 @@
         <v>9516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,34 +1880,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>178</v>
+      </c>
+      <c r="D17" s="7">
+        <v>118508</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="7">
         <v>211</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>141200</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="7">
-        <v>178</v>
-      </c>
-      <c r="I17" s="7">
-        <v>118508</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>389</v>
@@ -1916,13 +1916,13 @@
         <v>259708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,25 +1931,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E9176-7DC1-4843-A1DB-0166EC73A6D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017B4F02-7584-4F7F-8FEB-CCD3EDA33253}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2015,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2116,34 +2116,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1708</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>887</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1708</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2152,13 +2152,13 @@
         <v>2595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,34 +2167,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47148</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="7">
         <v>71</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>50234</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>69</v>
-      </c>
-      <c r="I5" s="7">
-        <v>47148</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -2203,13 +2203,13 @@
         <v>97382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="7">
-        <v>51121</v>
+        <v>48856</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2236,7 +2236,7 @@
         <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>48856</v>
+        <v>51121</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2271,34 +2271,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>652</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1589</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2307,13 +2307,13 @@
         <v>2241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,34 +2322,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>91</v>
+      </c>
+      <c r="D8" s="7">
+        <v>63658</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>103</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>74019</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7">
-        <v>63658</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>194</v>
@@ -2358,13 +2358,13 @@
         <v>137677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,25 +2373,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>104</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>74671</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2426,31 +2426,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>652</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>121</v>
@@ -2465,7 +2465,7 @@
         <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>123</v>
@@ -2477,34 +2477,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>45</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>31842</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>37728</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -2519,7 +2519,7 @@
         <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,25 +2528,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32494</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2581,31 +2581,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1905</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>132</v>
@@ -2632,34 +2632,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7">
         <v>45</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>30658</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>35161</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -2683,25 +2683,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32563</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>51</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35161</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2736,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4097</v>
+        <v>3296</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>143</v>
@@ -2751,10 +2751,10 @@
         <v>145</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>3296</v>
+        <v>4097</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>146</v>
@@ -2775,10 +2775,10 @@
         <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,31 +2790,31 @@
         <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>186753</v>
+        <v>183696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
       </c>
       <c r="I17" s="7">
-        <v>183696</v>
+        <v>186753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -2823,13 +2823,13 @@
         <v>370448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,25 +2838,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>269</v>
+      </c>
+      <c r="D18" s="7">
+        <v>186992</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>270</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>190850</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>269</v>
-      </c>
-      <c r="I18" s="7">
-        <v>186992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C167DFCE-AA0E-4380-B0F9-98751D62E385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F93F3-69CF-4AE9-9B33-B7541E624286}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2922,7 +2922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3023,34 +3023,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>613</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>613</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3059,13 +3059,13 @@
         <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,34 +3074,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30680</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
         <v>48</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30918</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>50</v>
-      </c>
-      <c r="I5" s="7">
-        <v>30680</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
         <v>98</v>
@@ -3110,13 +3110,13 @@
         <v>61598</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,25 +3125,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>48</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>30918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3178,34 +3178,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1149</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>663</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1149</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3214,13 +3214,13 @@
         <v>1811</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,34 +3229,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7">
+        <v>49951</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>69</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>46703</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>77</v>
-      </c>
-      <c r="I8" s="7">
-        <v>49951</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>146</v>
@@ -3265,13 +3265,13 @@
         <v>96655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,25 +3280,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51100</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47366</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>79</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51100</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3333,34 +3333,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1399</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3369,13 +3369,13 @@
         <v>1399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,34 +3384,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>58</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>41401</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>63</v>
-      </c>
-      <c r="I11" s="7">
-        <v>43903</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>121</v>
@@ -3420,13 +3420,13 @@
         <v>85304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,25 +3435,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42800</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,31 +3539,31 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7">
         <v>37</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>27041</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>52</v>
-      </c>
-      <c r="I14" s="7">
-        <v>36239</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3575,10 +3575,10 @@
         <v>63281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -3590,25 +3590,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27041</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="7">
-        <v>36239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3646,31 +3646,31 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2062</v>
+        <v>1762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1762</v>
+        <v>2062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -3679,13 +3679,13 @@
         <v>3824</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,34 +3694,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>242</v>
+      </c>
+      <c r="D17" s="7">
+        <v>160774</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="7">
         <v>212</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>146063</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="7">
-        <v>242</v>
-      </c>
-      <c r="I17" s="7">
-        <v>160774</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -3730,13 +3730,13 @@
         <v>306837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,25 +3745,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>245</v>
+      </c>
+      <c r="D18" s="7">
+        <v>162536</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>148125</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>245</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162536</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
